--- a/MBTA_ridership_red.xlsx
+++ b/MBTA_ridership_red.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jialei\Documents\spatial analysis\spatial_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0B778E0-5D97-4DD5-8AAB-DB2B92649EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139C02E-2B4D-406F-A464-2FF9DC69DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6578" yWindow="113" windowWidth="15727" windowHeight="15405"/>
+    <workbookView xWindow="1530" yWindow="368" windowWidth="15728" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBTA_ridership_red" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>LATE_EVENING</t>
   </si>
   <si>
-    <t>coordinates</t>
-  </si>
-  <si>
     <t>c(752981.590000004, 2969782.02)</t>
   </si>
   <si>
@@ -225,11 +222,14 @@
   <si>
     <t>c(759062.420000002, 2966679.98999999)</t>
   </si>
+  <si>
+    <t>geometry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O136" sqref="O136"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1128,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -1187,7 +1187,7 @@
         <v>4835</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -1246,7 +1246,7 @@
         <v>1535</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -1305,7 +1305,7 @@
         <v>3977</v>
       </c>
       <c r="S4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -1364,7 +1364,7 @@
         <v>6400</v>
       </c>
       <c r="S5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -1423,7 +1423,7 @@
         <v>2038</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
@@ -1482,7 +1482,7 @@
         <v>1979</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
@@ -1541,7 +1541,7 @@
         <v>7970</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
@@ -1600,7 +1600,7 @@
         <v>2949</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -1659,7 +1659,7 @@
         <v>4837</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
@@ -1718,7 +1718,7 @@
         <v>6461</v>
       </c>
       <c r="S11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
@@ -1777,7 +1777,7 @@
         <v>12412</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -1836,7 +1836,7 @@
         <v>3572</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
@@ -1895,7 +1895,7 @@
         <v>755</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
@@ -1954,7 +1954,7 @@
         <v>4278</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
@@ -2013,7 +2013,7 @@
         <v>1494</v>
       </c>
       <c r="S16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
@@ -2072,7 +2072,7 @@
         <v>15139</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
@@ -2131,7 +2131,7 @@
         <v>9636</v>
       </c>
       <c r="S18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
@@ -2190,7 +2190,7 @@
         <v>14115</v>
       </c>
       <c r="S19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
@@ -2249,7 +2249,7 @@
         <v>12922</v>
       </c>
       <c r="S20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
@@ -2308,7 +2308,7 @@
         <v>12820</v>
       </c>
       <c r="S21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
@@ -2367,7 +2367,7 @@
         <v>2555</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
@@ -2426,7 +2426,7 @@
         <v>10904</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
@@ -2485,7 +2485,7 @@
         <v>5471</v>
       </c>
       <c r="S24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
@@ -2544,7 +2544,7 @@
         <v>9558</v>
       </c>
       <c r="S25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
@@ -2603,7 +2603,7 @@
         <v>9529</v>
       </c>
       <c r="S26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
@@ -2662,7 +2662,7 @@
         <v>7442</v>
       </c>
       <c r="S27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
@@ -2721,7 +2721,7 @@
         <v>779</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
@@ -2780,7 +2780,7 @@
         <v>102</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
@@ -2839,7 +2839,7 @@
         <v>483</v>
       </c>
       <c r="S30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
@@ -2898,7 +2898,7 @@
         <v>216</v>
       </c>
       <c r="S31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
@@ -2957,7 +2957,7 @@
         <v>424</v>
       </c>
       <c r="S32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
@@ -3016,7 +3016,7 @@
         <v>434</v>
       </c>
       <c r="S33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
@@ -3075,7 +3075,7 @@
         <v>289</v>
       </c>
       <c r="S34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
@@ -3134,7 +3134,7 @@
         <v>937</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
@@ -3193,7 +3193,7 @@
         <v>2159</v>
       </c>
       <c r="S36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
@@ -3252,7 +3252,7 @@
         <v>1500</v>
       </c>
       <c r="S37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
@@ -3311,7 +3311,7 @@
         <v>2109</v>
       </c>
       <c r="S38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
@@ -3370,7 +3370,7 @@
         <v>1922</v>
       </c>
       <c r="S39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
@@ -3429,7 +3429,7 @@
         <v>1847</v>
       </c>
       <c r="S40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
@@ -3488,7 +3488,7 @@
         <v>45</v>
       </c>
       <c r="S41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
@@ -3606,7 +3606,7 @@
         <v>4133</v>
       </c>
       <c r="S43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
@@ -3665,7 +3665,7 @@
         <v>14437</v>
       </c>
       <c r="S44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
@@ -3724,7 +3724,7 @@
         <v>3511</v>
       </c>
       <c r="S45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
@@ -3783,7 +3783,7 @@
         <v>10269</v>
       </c>
       <c r="S46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
@@ -3842,7 +3842,7 @@
         <v>16700</v>
       </c>
       <c r="S47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
@@ -3901,7 +3901,7 @@
         <v>7680</v>
       </c>
       <c r="S48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
@@ -4019,7 +4019,7 @@
         <v>15158</v>
       </c>
       <c r="S50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
@@ -4078,7 +4078,7 @@
         <v>3260</v>
       </c>
       <c r="S51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
@@ -4137,7 +4137,7 @@
         <v>10477</v>
       </c>
       <c r="S52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
@@ -4196,7 +4196,7 @@
         <v>17518</v>
       </c>
       <c r="S53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
@@ -4255,7 +4255,7 @@
         <v>7562</v>
       </c>
       <c r="S54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
@@ -4314,7 +4314,7 @@
         <v>3538</v>
       </c>
       <c r="S55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
@@ -4373,7 +4373,7 @@
         <v>3997</v>
       </c>
       <c r="S56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
@@ -4432,7 +4432,7 @@
         <v>3620</v>
       </c>
       <c r="S57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
@@ -4491,7 +4491,7 @@
         <v>1255</v>
       </c>
       <c r="S58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
@@ -4550,7 +4550,7 @@
         <v>5944</v>
       </c>
       <c r="S59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
@@ -4668,7 +4668,7 @@
         <v>5431</v>
       </c>
       <c r="S61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
@@ -4727,7 +4727,7 @@
         <v>1928</v>
       </c>
       <c r="S62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
@@ -4786,7 +4786,7 @@
         <v>5474</v>
       </c>
       <c r="S63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
@@ -4845,7 +4845,7 @@
         <v>1660</v>
       </c>
       <c r="S64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
@@ -4963,7 +4963,7 @@
         <v>5279</v>
       </c>
       <c r="S66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
@@ -5022,7 +5022,7 @@
         <v>1093</v>
       </c>
       <c r="S67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
@@ -5081,7 +5081,7 @@
         <v>2948</v>
       </c>
       <c r="S68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
@@ -5140,7 +5140,7 @@
         <v>6561</v>
       </c>
       <c r="S69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
@@ -5199,7 +5199,7 @@
         <v>2133</v>
       </c>
       <c r="S70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
@@ -5317,7 +5317,7 @@
         <v>5162</v>
       </c>
       <c r="S72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.45">
@@ -5376,7 +5376,7 @@
         <v>1720</v>
       </c>
       <c r="S73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.45">
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.45">
@@ -5494,7 +5494,7 @@
         <v>2056</v>
       </c>
       <c r="S75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
@@ -5553,7 +5553,7 @@
         <v>3102</v>
       </c>
       <c r="S76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
@@ -5612,7 +5612,7 @@
         <v>16281</v>
       </c>
       <c r="S77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
@@ -5671,7 +5671,7 @@
         <v>1500</v>
       </c>
       <c r="S78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
@@ -5730,7 +5730,7 @@
         <v>420</v>
       </c>
       <c r="S79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
@@ -5789,7 +5789,7 @@
         <v>1329</v>
       </c>
       <c r="S80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.45">
@@ -5848,7 +5848,7 @@
         <v>1681</v>
       </c>
       <c r="S81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
@@ -5907,7 +5907,7 @@
         <v>978</v>
       </c>
       <c r="S82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
@@ -6025,7 +6025,7 @@
         <v>177</v>
       </c>
       <c r="S84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.45">
@@ -6084,7 +6084,7 @@
         <v>23</v>
       </c>
       <c r="S85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.45">
@@ -6143,7 +6143,7 @@
         <v>164</v>
       </c>
       <c r="S86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
@@ -6202,7 +6202,7 @@
         <v>201</v>
       </c>
       <c r="S87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.45">
@@ -6261,7 +6261,7 @@
         <v>112</v>
       </c>
       <c r="S88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.45">
@@ -6320,7 +6320,7 @@
         <v>7488</v>
       </c>
       <c r="S89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.45">
@@ -6379,7 +6379,7 @@
         <v>261</v>
       </c>
       <c r="S90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
@@ -6438,7 +6438,7 @@
         <v>101</v>
       </c>
       <c r="S91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.45">
@@ -6497,7 +6497,7 @@
         <v>14710</v>
       </c>
       <c r="S92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.45">
@@ -6556,7 +6556,7 @@
         <v>120</v>
       </c>
       <c r="S93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.45">
@@ -6615,7 +6615,7 @@
         <v>16786</v>
       </c>
       <c r="S94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.45">
@@ -6674,7 +6674,7 @@
         <v>159</v>
       </c>
       <c r="S95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.45">
@@ -6733,7 +6733,7 @@
         <v>10086</v>
       </c>
       <c r="S96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.45">
@@ -6792,7 +6792,7 @@
         <v>3325</v>
       </c>
       <c r="S97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.45">
@@ -6851,7 +6851,7 @@
         <v>16458</v>
       </c>
       <c r="S98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.45">
@@ -6910,7 +6910,7 @@
         <v>7135</v>
       </c>
       <c r="S99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.45">
@@ -6969,7 +6969,7 @@
         <v>14730</v>
       </c>
       <c r="S100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.45">
@@ -7028,7 +7028,7 @@
         <v>16977</v>
       </c>
       <c r="S101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.45">
@@ -7087,7 +7087,7 @@
         <v>9733</v>
       </c>
       <c r="S102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.45">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.45">
@@ -7205,7 +7205,7 @@
         <v>379</v>
       </c>
       <c r="S104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.45">
@@ -7264,7 +7264,7 @@
         <v>1231</v>
       </c>
       <c r="S105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.45">
@@ -7323,7 +7323,7 @@
         <v>320</v>
       </c>
       <c r="S106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
@@ -7382,7 +7382,7 @@
         <v>130</v>
       </c>
       <c r="S107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.45">
@@ -7441,7 +7441,7 @@
         <v>963</v>
       </c>
       <c r="S108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.45">
@@ -7500,7 +7500,7 @@
         <v>15604</v>
       </c>
       <c r="S109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.45">
@@ -7559,7 +7559,7 @@
         <v>5312</v>
       </c>
       <c r="S110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.45">
@@ -7618,7 +7618,7 @@
         <v>1461</v>
       </c>
       <c r="S111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.45">
@@ -7677,7 +7677,7 @@
         <v>14034</v>
       </c>
       <c r="S112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.45">
@@ -7736,7 +7736,7 @@
         <v>481</v>
       </c>
       <c r="S113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.45">
@@ -7795,7 +7795,7 @@
         <v>17470</v>
       </c>
       <c r="S114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.45">
@@ -7854,7 +7854,7 @@
         <v>10466</v>
       </c>
       <c r="S115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.45">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.45">
@@ -7972,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="S117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.45">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.45">
@@ -8090,7 +8090,7 @@
         <v>7788</v>
       </c>
       <c r="S119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.45">
@@ -8149,7 +8149,7 @@
         <v>2144</v>
       </c>
       <c r="S120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.45">
@@ -8208,7 +8208,7 @@
         <v>6874</v>
       </c>
       <c r="S121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.45">
@@ -8267,7 +8267,7 @@
         <v>8869</v>
       </c>
       <c r="S122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.45">
@@ -8326,7 +8326,7 @@
         <v>5049</v>
       </c>
       <c r="S123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.45">
@@ -8385,7 +8385,7 @@
         <v>142</v>
       </c>
       <c r="S124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.45">
@@ -8444,7 +8444,7 @@
         <v>30</v>
       </c>
       <c r="S125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.45">
@@ -8503,7 +8503,7 @@
         <v>106</v>
       </c>
       <c r="S126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.45">
@@ -8562,7 +8562,7 @@
         <v>945</v>
       </c>
       <c r="S127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.45">
@@ -8621,7 +8621,7 @@
         <v>327</v>
       </c>
       <c r="S128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.45">
@@ -8680,7 +8680,7 @@
         <v>177</v>
       </c>
       <c r="S129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.45">
@@ -8739,7 +8739,7 @@
         <v>511</v>
       </c>
       <c r="S130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.45">
@@ -8798,7 +8798,7 @@
         <v>1369</v>
       </c>
       <c r="S131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.45">
@@ -8857,7 +8857,7 @@
         <v>414</v>
       </c>
       <c r="S132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.45">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
